--- a/biology/Zoologie/Haplochromis_brownae/Haplochromis_brownae.xlsx
+++ b/biology/Zoologie/Haplochromis_brownae/Haplochromis_brownae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochromis brownae est une espèce de poissons de la famille des Cichlidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur les territoires de la Tanzanie et de l'Ouganda[2] mais pas au Kenya qui possède pourtant une partie du lac.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur les territoires de la Tanzanie et de l'Ouganda mais pas au Kenya qui possède pourtant une partie du lac.
 </t>
         </is>
       </c>
